--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/90.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/90.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2141806397139509</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.320660723829812</v>
+        <v>-1.311542723502088</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1645639844383955</v>
+        <v>-0.1703048935318485</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1275254844682236</v>
+        <v>-0.1357192743544032</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2097390386861747</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388439076305976</v>
+        <v>-1.385399256180704</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.232184651720741</v>
+        <v>-0.2387972095244665</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1326487932192222</v>
+        <v>-0.13772246033513</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1998476297228548</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491462989696676</v>
+        <v>-1.489973740643949</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2794653890486374</v>
+        <v>-0.2834250394711818</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1373618284566755</v>
+        <v>-0.1425800403335832</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.185057453810319</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.642034829215908</v>
+        <v>-1.649148183514815</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.290888805311907</v>
+        <v>-0.2905135729525435</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1480829615882181</v>
+        <v>-0.1516483990262171</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.167228894641049</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.736371456465701</v>
+        <v>-1.744868936354789</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2895353407316347</v>
+        <v>-0.2898507111192709</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1671438894150312</v>
+        <v>-0.1661364562323042</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1506032789455198</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.576780899888925</v>
+        <v>-1.585726614541923</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2226622180718344</v>
+        <v>-0.2221862423941982</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1751770740112108</v>
+        <v>-0.1697150341031214</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1393683664149724</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.419850550933786</v>
+        <v>-1.423315245053512</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1453088702154916</v>
+        <v>-0.1486932616902179</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1536472048626711</v>
+        <v>-0.151330108542399</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1344048812108659</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.15030961282304</v>
+        <v>-1.154162679734948</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003145447651802468</v>
+        <v>-0.008211814527255654</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1317391832585861</v>
+        <v>-0.1270013272035874</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1309450228733148</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.78090284534223</v>
+        <v>-0.7814080219816844</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08249659321662908</v>
+        <v>0.07807264750117572</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1189447818379532</v>
+        <v>-0.1140331800601363</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1224148558056141</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4081321270599664</v>
+        <v>-0.4006128793917866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1274120526372534</v>
+        <v>0.1150396051148931</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07431841193932881</v>
+        <v>-0.07076465488605704</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1024293710844179</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05981766622054426</v>
+        <v>0.07280625403726805</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1399407253053409</v>
+        <v>0.1290560667876166</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02718851148491666</v>
+        <v>0.02934208241900699</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.06633164241599616</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5997799514408538</v>
+        <v>0.6146374008139407</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05971546285418065</v>
+        <v>0.04701012436709315</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1771398305655127</v>
+        <v>0.1845583349154199</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.01237235688100896</v>
       </c>
       <c r="E14" t="n">
-        <v>1.162964301547066</v>
+        <v>1.180806089217971</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08879040861641584</v>
+        <v>-0.09728058826504991</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3060109753095691</v>
+        <v>0.314407711880385</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.0588419390746447</v>
       </c>
       <c r="E15" t="n">
-        <v>1.811522043672983</v>
+        <v>1.826966432378615</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2595167519825518</v>
+        <v>-0.2613184513267331</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4881227736886111</v>
+        <v>0.4954755758744273</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1404624963202606</v>
       </c>
       <c r="E16" t="n">
-        <v>2.437501602121088</v>
+        <v>2.460841930902354</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4969205715643062</v>
+        <v>-0.4977849200341242</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6052390712527614</v>
+        <v>0.6162405336177584</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2261351417550307</v>
       </c>
       <c r="E17" t="n">
-        <v>3.048201757297833</v>
+        <v>3.074168712594644</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6306741171243613</v>
+        <v>-0.6351258037535419</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7921281469852567</v>
+        <v>0.8018579074630723</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3151577976910705</v>
       </c>
       <c r="E18" t="n">
-        <v>3.645803821051036</v>
+        <v>3.680574866336026</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7536671082544191</v>
+        <v>-0.759186090038054</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9354464675888546</v>
+        <v>0.9411610958166713</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4088887385709701</v>
       </c>
       <c r="E19" t="n">
-        <v>4.180109879967165</v>
+        <v>4.215136433668065</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9122546117927401</v>
+        <v>-0.9165018916891936</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087577638469177</v>
+        <v>1.094921680366448</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5036654911340012</v>
       </c>
       <c r="E20" t="n">
-        <v>4.723615701904111</v>
+        <v>4.759557705758009</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.126348763603137</v>
+        <v>-1.132659091452045</v>
       </c>
       <c r="G20" t="n">
-        <v>1.246957948120862</v>
+        <v>1.253450781981133</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5914666567887865</v>
       </c>
       <c r="E21" t="n">
-        <v>5.182021160814351</v>
+        <v>5.222925868129249</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.282933081160732</v>
+        <v>-1.290760398976093</v>
       </c>
       <c r="G21" t="n">
-        <v>1.422736057881542</v>
+        <v>1.431236457866812</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.664925256694191</v>
       </c>
       <c r="E22" t="n">
-        <v>5.586981559356878</v>
+        <v>5.626032005596322</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.489922638960767</v>
+        <v>-1.495796412430493</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539255195776511</v>
+        <v>1.544937702946327</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7197293892757164</v>
       </c>
       <c r="E23" t="n">
-        <v>5.857716816805987</v>
+        <v>5.901696385400339</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.668625225047537</v>
+        <v>-1.679014927262443</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699588916831559</v>
+        <v>1.708119977826738</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7551785938378823</v>
       </c>
       <c r="E24" t="n">
-        <v>6.163269841078996</v>
+        <v>6.204419836473167</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.8415394504779</v>
+        <v>-1.849455101202761</v>
       </c>
       <c r="G24" t="n">
-        <v>1.814738529617255</v>
+        <v>1.818267465852981</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.77173146707344</v>
       </c>
       <c r="E25" t="n">
-        <v>6.376784353797302</v>
+        <v>6.413754231507202</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.976631860137318</v>
+        <v>-1.986115602511815</v>
       </c>
       <c r="G25" t="n">
-        <v>1.917959549500227</v>
+        <v>1.918331861763409</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7721190695736668</v>
       </c>
       <c r="E26" t="n">
-        <v>6.477305744760185</v>
+        <v>6.510679524022176</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.084109650229335</v>
+        <v>-2.090215571345515</v>
       </c>
       <c r="G26" t="n">
-        <v>1.981592825446301</v>
+        <v>1.983174057528755</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7594436321221447</v>
       </c>
       <c r="E27" t="n">
-        <v>6.530775625945443</v>
+        <v>6.564583039490434</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.172875463988265</v>
+        <v>-2.178295892525764</v>
       </c>
       <c r="G27" t="n">
-        <v>2.064069482053642</v>
+        <v>2.064516256769461</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7367747530450625</v>
       </c>
       <c r="E28" t="n">
-        <v>6.641727600469777</v>
+        <v>6.673620890967586</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.233385697067885</v>
+        <v>-2.235304930283385</v>
       </c>
       <c r="G28" t="n">
-        <v>2.093740579357089</v>
+        <v>2.096635854721361</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7063612116797029</v>
       </c>
       <c r="E29" t="n">
-        <v>6.578951372753067</v>
+        <v>6.609495578814877</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.293894470099415</v>
+        <v>-2.296277268583778</v>
       </c>
       <c r="G29" t="n">
-        <v>2.140570161824895</v>
+        <v>2.139269258975895</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6706166816412634</v>
       </c>
       <c r="E30" t="n">
-        <v>6.543349560104349</v>
+        <v>6.580147152139521</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.32975033111595</v>
+        <v>-2.329864944891087</v>
       </c>
       <c r="G30" t="n">
-        <v>2.125417782737444</v>
+        <v>2.123454018055172</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6312868216821803</v>
       </c>
       <c r="E31" t="n">
-        <v>6.454729021130463</v>
+        <v>6.49029725267309</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.312042137845364</v>
+        <v>-2.31133620459341</v>
       </c>
       <c r="G31" t="n">
-        <v>2.109443396574812</v>
+        <v>2.10352728171045</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.5894348613872141</v>
       </c>
       <c r="E32" t="n">
-        <v>6.280758450906329</v>
+        <v>6.311616567307683</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.317818818117045</v>
+        <v>-2.317925401627681</v>
       </c>
       <c r="G32" t="n">
-        <v>2.045855382119556</v>
+        <v>2.044025941861648</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5466180879966038</v>
       </c>
       <c r="E33" t="n">
-        <v>6.094865127971833</v>
+        <v>6.132197097608278</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.341849749645311</v>
+        <v>-2.33595918562254</v>
       </c>
       <c r="G33" t="n">
-        <v>1.979383772684756</v>
+        <v>1.981724229774483</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5035250618510065</v>
       </c>
       <c r="E34" t="n">
-        <v>5.856970732231533</v>
+        <v>5.88972691115107</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.3828683407113</v>
+        <v>-2.386564452453435</v>
       </c>
       <c r="G34" t="n">
-        <v>1.896834113672869</v>
+        <v>1.895890922606142</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4617349442695556</v>
       </c>
       <c r="E35" t="n">
-        <v>5.631771454641685</v>
+        <v>5.666415475742766</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.370867475428076</v>
+        <v>-2.372796928980212</v>
       </c>
       <c r="G35" t="n">
-        <v>1.828373918738251</v>
+        <v>1.827292023102888</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4208121240189365</v>
       </c>
       <c r="E36" t="n">
-        <v>5.442220711239463</v>
+        <v>5.476185809978272</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.330595698960586</v>
+        <v>-2.338834020313539</v>
       </c>
       <c r="G36" t="n">
-        <v>1.741130205114093</v>
+        <v>1.73784801700573</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3807741603726841</v>
       </c>
       <c r="E37" t="n">
-        <v>5.081112857107378</v>
+        <v>5.11100150157637</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.271267374810557</v>
+        <v>-2.276152695722737</v>
       </c>
       <c r="G37" t="n">
-        <v>1.652686331959208</v>
+        <v>1.65232131993648</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3407892245576073</v>
       </c>
       <c r="E38" t="n">
-        <v>4.804873218355543</v>
+        <v>4.842938132133623</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.164982444008813</v>
+        <v>-2.173842745848492</v>
       </c>
       <c r="G38" t="n">
-        <v>1.551157507813598</v>
+        <v>1.557080922918415</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3004548532134256</v>
       </c>
       <c r="E39" t="n">
-        <v>4.51076989121144</v>
+        <v>4.548309187676794</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.1468771176575</v>
+        <v>-2.156727332102815</v>
       </c>
       <c r="G39" t="n">
-        <v>1.438581959812174</v>
+        <v>1.4455317887249</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2587606264396785</v>
       </c>
       <c r="E40" t="n">
-        <v>4.242799964846512</v>
+        <v>4.276268647234412</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.118120740483007</v>
+        <v>-2.127905982788278</v>
       </c>
       <c r="G40" t="n">
-        <v>1.384539739775279</v>
+        <v>1.385106238434552</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2146132541407325</v>
       </c>
       <c r="E41" t="n">
-        <v>3.949772693145409</v>
+        <v>3.977259558504856</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.028327052868077</v>
+        <v>-2.03783561606012</v>
       </c>
       <c r="G41" t="n">
-        <v>1.263863844965494</v>
+        <v>1.264515026414039</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1674442991237987</v>
       </c>
       <c r="E42" t="n">
-        <v>3.696174020139295</v>
+        <v>3.718670441124016</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933755357875648</v>
+        <v>-1.943355174073372</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158750602756704</v>
+        <v>1.159511287812067</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1168932364904937</v>
       </c>
       <c r="E43" t="n">
-        <v>3.424564193883731</v>
+        <v>3.450612911873634</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865798879532393</v>
+        <v>-1.876089298477118</v>
       </c>
       <c r="G43" t="n">
-        <v>1.065313365130911</v>
+        <v>1.066655149326456</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.06409670499306803</v>
       </c>
       <c r="E44" t="n">
-        <v>3.155960606647349</v>
+        <v>3.182876593203251</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825905255520449</v>
+        <v>-1.835545223040674</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9309013378818558</v>
+        <v>0.9346872425815821</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.01038065515545659</v>
       </c>
       <c r="E45" t="n">
-        <v>2.898050411628782</v>
+        <v>2.922896049991775</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.743865883316335</v>
+        <v>-1.748575998457607</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8113803411119788</v>
+        <v>0.8119497598674332</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.04206793290805207</v>
       </c>
       <c r="E46" t="n">
-        <v>2.650562039883121</v>
+        <v>2.672037887252297</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.696227434206166</v>
+        <v>-1.698556210911165</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7698229923004445</v>
+        <v>0.7718889603490803</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.09168959345476699</v>
       </c>
       <c r="E47" t="n">
-        <v>2.350203866717566</v>
+        <v>2.371508888460105</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.649339449814724</v>
+        <v>-1.651031645552087</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6635577721479275</v>
+        <v>0.6630817964702914</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1369080607962872</v>
       </c>
       <c r="E48" t="n">
-        <v>2.159524506141071</v>
+        <v>2.177443676360794</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.615123222804279</v>
+        <v>-1.616962883398824</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6010808542898535</v>
+        <v>0.6004676340916718</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1772460245110745</v>
       </c>
       <c r="E49" t="n">
-        <v>1.961848595112943</v>
+        <v>1.981665827850846</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.567134362152292</v>
+        <v>-1.566789790802837</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5402713113515971</v>
+        <v>0.5384623117669612</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2126175278469458</v>
       </c>
       <c r="E50" t="n">
-        <v>1.851092267032791</v>
+        <v>1.867173236706059</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.494460468427311</v>
+        <v>-1.491503871043221</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4790193738417953</v>
+        <v>0.4766526358864323</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2432925257792963</v>
       </c>
       <c r="E51" t="n">
-        <v>1.673934411826202</v>
+        <v>1.689107231586925</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.438115752551054</v>
+        <v>-1.432240519033237</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4202889393849929</v>
+        <v>0.4192187241343568</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2701943976855498</v>
       </c>
       <c r="E52" t="n">
-        <v>1.555615034635143</v>
+        <v>1.57102000204232</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.3988258584247</v>
+        <v>-1.390865676233066</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3397015850072873</v>
+        <v>0.338171454608015</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2940645000153284</v>
       </c>
       <c r="E53" t="n">
-        <v>1.380175656031553</v>
+        <v>1.389717070305642</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.360489375701711</v>
+        <v>-1.353847616936167</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2723875278240326</v>
+        <v>0.2722736440729417</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3158608060348142</v>
       </c>
       <c r="E54" t="n">
-        <v>1.326206438399204</v>
+        <v>1.342753163413472</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.341495610087079</v>
+        <v>-1.333631791069445</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2221618734967734</v>
+        <v>0.2159756497355932</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3357990971326758</v>
       </c>
       <c r="E55" t="n">
-        <v>1.205301316039146</v>
+        <v>1.216948119660324</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.30454179290618</v>
+        <v>-1.298808184053182</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1633759572125165</v>
+        <v>0.165989443295243</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3546601514229487</v>
       </c>
       <c r="E56" t="n">
-        <v>1.174577524062154</v>
+        <v>1.187639114283423</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.252775787843012</v>
+        <v>-1.244365910839378</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1021780414820783</v>
+        <v>0.1069348781622589</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3727728848543584</v>
       </c>
       <c r="E57" t="n">
-        <v>1.08298724727136</v>
+        <v>1.098371774005265</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.243305915925379</v>
+        <v>-1.238495057465834</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0586496277478173</v>
+        <v>0.06504755848217922</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3908787694321683</v>
       </c>
       <c r="E58" t="n">
-        <v>1.028582935307921</v>
+        <v>1.045204122774825</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.205619154602843</v>
+        <v>-1.200056371376481</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01896652876488913</v>
+        <v>-0.01237441163443635</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.409096262835086</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9202853282128587</v>
+        <v>0.9359326636031272</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.122180326303593</v>
+        <v>-1.113624444490868</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0955475111811413</v>
+        <v>-0.08815966784114328</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4274219227016257</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8935182665622294</v>
+        <v>0.9179799122773138</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102834689099053</v>
+        <v>-1.095419104845327</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.122754047307134</v>
+        <v>-0.1135528242382274</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.445501245657251</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7611984882274468</v>
+        <v>0.7852337998999859</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.073906756273879</v>
+        <v>-1.064577048972972</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1522294981663988</v>
+        <v>-0.1419726603277652</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4628613285497535</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7222750661719118</v>
+        <v>0.7452722836518147</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.068596561367244</v>
+        <v>-1.059093108343519</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2263021179624698</v>
+        <v>-0.2185857638020174</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4798005455906193</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6307636319780273</v>
+        <v>0.6560487448163842</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.103139839150053</v>
+        <v>-1.093875834013237</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2419217124390111</v>
+        <v>-0.2329759977860135</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4958644093690643</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5387309606156884</v>
+        <v>0.5727544612781338</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.089796459647238</v>
+        <v>-1.079015464543968</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2935300323083608</v>
+        <v>-0.280942957716637</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.51119959268739</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4528742926778933</v>
+        <v>0.4899726546197924</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.057184825488701</v>
+        <v>-1.047384982702522</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3271549398419882</v>
+        <v>-0.3124785364321739</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5250580113184661</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4048576911121789</v>
+        <v>0.4402784577976239</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.072554751741697</v>
+        <v>-1.063216284152245</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3555791560757988</v>
+        <v>-0.3418415635884388</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5370405673056677</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3748201217379142</v>
+        <v>0.4166680201195394</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.091644880530328</v>
+        <v>-1.08038498965324</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.390516646843153</v>
+        <v>-0.3714148376697945</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5462087226737907</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2950270335216629</v>
+        <v>0.3374268300816515</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.106068695620415</v>
+        <v>-1.096436758364691</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3997733517395142</v>
+        <v>-0.3840004522134275</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5523621257790038</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1897196049167821</v>
+        <v>0.2362761583915878</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.146634671778223</v>
+        <v>-1.137653915971043</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.424099212982144</v>
+        <v>-0.4051317282331491</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.555706901107499</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1267477307558899</v>
+        <v>0.1738532623128773</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.194763697046937</v>
+        <v>-1.187238609186394</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.440314507079776</v>
+        <v>-0.423250925041326</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5554753611611704</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07757185100599404</v>
+        <v>0.118734986832983</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279243539635005</v>
+        <v>-1.276942503843733</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5000523747193054</v>
+        <v>-0.4854387533774002</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.551083802170986</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.01020478017134603</v>
+        <v>0.03598384118455066</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.315349068875086</v>
+        <v>-1.310992285371815</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4939727344687616</v>
+        <v>-0.4804395487141289</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5409548633108334</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02344887640397883</v>
+        <v>0.02195131898282716</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.305838315610907</v>
+        <v>-1.301342827538999</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5438873985526572</v>
+        <v>-0.5298344356776611</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5244949435426356</v>
       </c>
       <c r="E74" t="n">
-        <v>0.006905523406013015</v>
+        <v>0.05007476530991051</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346192584795533</v>
+        <v>-1.342024147495988</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5278852714762979</v>
+        <v>-0.5184723414342095</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.500960092301856</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01206095321501163</v>
+        <v>0.05722608085918132</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.395737856712429</v>
+        <v>-1.39361932693252</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4793240719726746</v>
+        <v>-0.4677969922949504</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4708257604843167</v>
       </c>
       <c r="E76" t="n">
-        <v>0.064491280159543</v>
+        <v>0.105893863873441</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342304476729443</v>
+        <v>-1.339444242519353</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4899181809203081</v>
+        <v>-0.4782991182128567</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4350195332732205</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1774960822996945</v>
+        <v>0.2194622445766832</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.340470656327261</v>
+        <v>-1.338752179724262</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4352671208295046</v>
+        <v>-0.4241211137035076</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3945671842457878</v>
       </c>
       <c r="E78" t="n">
-        <v>0.263890047934944</v>
+        <v>0.3004657126602978</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306406274318271</v>
+        <v>-1.304775400600726</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4357328761705045</v>
+        <v>-0.4287611465364154</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3506962391749839</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3570819974814645</v>
+        <v>0.3900659439031828</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.324341505066993</v>
+        <v>-1.311865394130178</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4038176849513312</v>
+        <v>-0.3966634493058786</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3043080781867924</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4616433415118909</v>
+        <v>0.4873372678157022</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.338692317752535</v>
+        <v>-1.332260805912082</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3450711899655288</v>
+        <v>-0.3402515712174392</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2565976769234723</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5617778197306822</v>
+        <v>0.5823455171873131</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286418215953731</v>
+        <v>-1.281470112973641</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2931781607184519</v>
+        <v>-0.288970302120453</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2080232737230807</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6993756719140998</v>
+        <v>0.7132753297395507</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.222525051447475</v>
+        <v>-1.213960409346205</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2600701102090062</v>
+        <v>-0.2568609245051889</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1600217276859646</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8559950306258759</v>
+        <v>0.8656138274487825</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.165302846668581</v>
+        <v>-1.160515348978492</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2166672606105633</v>
+        <v>-0.2140683750087458</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1135387116860358</v>
       </c>
       <c r="E84" t="n">
-        <v>1.026324240911285</v>
+        <v>1.032552806067101</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.075051433977151</v>
+        <v>-1.068958653293789</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1648808148741227</v>
+        <v>-0.1681338020206672</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.06997553122841535</v>
       </c>
       <c r="E85" t="n">
-        <v>1.122669894334168</v>
+        <v>1.121808465960532</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.005262595279806</v>
+        <v>-0.9948947937862634</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1306149462285864</v>
+        <v>-0.1327495365374949</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.03026804445537622</v>
       </c>
       <c r="E86" t="n">
-        <v>1.289459948047214</v>
+        <v>1.28227067124758</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9290349445015539</v>
+        <v>-0.9184145546882839</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04538755901797294</v>
+        <v>-0.04887415385906291</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.0047112078704121</v>
       </c>
       <c r="E87" t="n">
-        <v>1.386573586765915</v>
+        <v>1.383706052315371</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8288771055133081</v>
+        <v>-0.8176756165598564</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01618951729598079</v>
+        <v>-0.01892710746643459</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.0335976902365086</v>
       </c>
       <c r="E88" t="n">
-        <v>1.474078648998346</v>
+        <v>1.470441669203893</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7003417718301607</v>
+        <v>-0.6916004639098904</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03518957502309633</v>
+        <v>0.03128540642800647</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05506112642903024</v>
       </c>
       <c r="E89" t="n">
-        <v>1.571739805751138</v>
+        <v>1.566412090267412</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5693272764886504</v>
+        <v>-0.557451245317199</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08032404165735693</v>
+        <v>0.07859826481390285</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.06689117523032745</v>
       </c>
       <c r="E90" t="n">
-        <v>1.633199070089849</v>
+        <v>1.624392060005488</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4399918364516852</v>
+        <v>-0.4323295040705963</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0939988520768078</v>
+        <v>0.09038961319608151</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06707480787410133</v>
       </c>
       <c r="E91" t="n">
-        <v>1.678270754656201</v>
+        <v>1.66538437020584</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2812597881523641</v>
+        <v>-0.2699268948707308</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1087351174583493</v>
+        <v>0.1031533536068053</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05490827505924232</v>
       </c>
       <c r="E92" t="n">
-        <v>1.708099537153465</v>
+        <v>1.694848140680378</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1205887959883164</v>
+        <v>-0.1137251099129546</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1038746173637143</v>
+        <v>0.1056748566598047</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03171842345495579</v>
       </c>
       <c r="E93" t="n">
-        <v>1.70413842668283</v>
+        <v>1.690638822034288</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03857980669018633</v>
+        <v>0.0407903194998221</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09969303963135173</v>
+        <v>0.100312100021897</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.00193808929671025</v>
       </c>
       <c r="E94" t="n">
-        <v>1.652965201144571</v>
+        <v>1.637512052150393</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1497916697747019</v>
+        <v>0.1463897577228847</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06060463214154405</v>
+        <v>0.06154198301590744</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02868412870840915</v>
       </c>
       <c r="E95" t="n">
-        <v>1.563846785771686</v>
+        <v>1.544245640151237</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2351256404959517</v>
+        <v>0.2298052252526804</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01177624383728443</v>
+        <v>0.01310196750382953</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05545563270706847</v>
       </c>
       <c r="E96" t="n">
-        <v>1.440231814154901</v>
+        <v>1.421922811094906</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3146529999596577</v>
+        <v>0.3071819338784779</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02887003496552283</v>
+        <v>-0.02489870415825117</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07451305896539349</v>
       </c>
       <c r="E97" t="n">
-        <v>1.28619236041976</v>
+        <v>1.266286064748311</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3636697344676445</v>
+        <v>0.3587114111509185</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04973412218460814</v>
+        <v>-0.04542844036451839</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08415328580078449</v>
       </c>
       <c r="E98" t="n">
-        <v>1.152564378995524</v>
+        <v>1.136422087302437</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3825569165716394</v>
+        <v>0.3787505711986404</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08710989326377992</v>
+        <v>-0.0813981851321451</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0848144449031797</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9973583468357471</v>
+        <v>0.9862649014410227</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3776847360922771</v>
+        <v>0.3747091580830051</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1275561454781327</v>
+        <v>-0.1225248197568613</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08059054010639512</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8880489264136855</v>
+        <v>0.8813662863015964</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3467506971901945</v>
+        <v>0.3456965424685584</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1422340089360379</v>
+        <v>-0.1362142306572213</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07544986388281605</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7463965206818145</v>
+        <v>0.7436983518098151</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3474588205142852</v>
+        <v>0.3494196651003756</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1345278751122217</v>
+        <v>-0.1297914791053139</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07424743765281193</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6336735078232083</v>
+        <v>0.627761773103119</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3048166559712058</v>
+        <v>0.3052663507832056</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1945971736683874</v>
+        <v>-0.194172299673933</v>
       </c>
     </row>
   </sheetData>
